--- a/biology/Zoologie/Calymmaria_bifurcata/Calymmaria_bifurcata.xlsx
+++ b/biology/Zoologie/Calymmaria_bifurcata/Calymmaria_bifurcata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calymmaria bifurcata est une espèce d'araignées aranéomorphes de la famille des Cybaeidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calymmaria bifurcata est une espèce d'araignées aranéomorphes de la famille des Cybaeidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des États-Unis[1]. Elle se rencontre en Californie dans les comtés de Del Norte et de Humboldt et en Oregon dans les comtés de Coos, de Douglas, de Klamath, de Marion, de Linn, de Jackson et de Josephine[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des États-Unis. Elle se rencontre en Californie dans les comtés de Del Norte et de Humboldt et en Oregon dans les comtés de Coos, de Douglas, de Klamath, de Marion, de Linn, de Jackson et de Josephine,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les femelles mesurent de 5,89 à 8,25 mm et les mâles de 6,51 à 6,98 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les femelles mesurent de 5,89 à 8,25 mm et les mâles de 6,51 à 6,98 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Heiss &amp; Draney, 2004 : Revision of the Nearctic spider genus Calymmaria (Araneae, Hahniidae). Journal Of Arachnology, vol. 32, no 3, p. 457-525 (texte intégral).</t>
         </is>
